--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_19_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_19_30.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>870505.8348748398</v>
+        <v>884232.193012258</v>
       </c>
     </row>
     <row r="7">
@@ -26314,10 +26316,10 @@
         <v>614457.2540377785</v>
       </c>
       <c r="C2" t="n">
-        <v>614457.2540377785</v>
+        <v>614457.2540377788</v>
       </c>
       <c r="D2" t="n">
-        <v>614457.2540377786</v>
+        <v>614457.2540377787</v>
       </c>
       <c r="E2" t="n">
         <v>171480.8222247954</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100</v>
+        <v>133100.0000000001</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>447024.6202723928</v>
+        <v>447024.6202723929</v>
       </c>
       <c r="C4" t="n">
-        <v>447024.6202723928</v>
+        <v>447024.6202723929</v>
       </c>
       <c r="D4" t="n">
-        <v>447024.6202723928</v>
+        <v>447024.6202723929</v>
       </c>
       <c r="E4" t="n">
         <v>60523.96800341976</v>
       </c>
       <c r="F4" t="n">
-        <v>60523.96800341976</v>
+        <v>60523.96800341977</v>
       </c>
       <c r="G4" t="n">
         <v>60523.96800341976</v>
       </c>
       <c r="H4" t="n">
-        <v>60523.96800341976</v>
+        <v>60523.96800341977</v>
       </c>
       <c r="I4" t="n">
         <v>60523.96800341976</v>
       </c>
       <c r="J4" t="n">
-        <v>60523.96800341976</v>
+        <v>60523.96800341977</v>
       </c>
       <c r="K4" t="n">
         <v>60523.96800341976</v>
       </c>
       <c r="L4" t="n">
-        <v>60523.96800341976</v>
+        <v>60523.96800341977</v>
       </c>
       <c r="M4" t="n">
         <v>60523.96800341976</v>
       </c>
       <c r="N4" t="n">
-        <v>60523.96800341976</v>
+        <v>60523.96800341977</v>
       </c>
       <c r="O4" t="n">
         <v>60523.96800341976</v>
       </c>
       <c r="P4" t="n">
-        <v>60523.96800341976</v>
+        <v>60523.96800341977</v>
       </c>
     </row>
     <row r="5">
@@ -26519,16 +26521,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>133805.0337653857</v>
+        <v>133805.0337653856</v>
       </c>
       <c r="C6" t="n">
-        <v>133805.0337653857</v>
+        <v>133805.0337653859</v>
       </c>
       <c r="D6" t="n">
         <v>133805.0337653858</v>
       </c>
       <c r="E6" t="n">
-        <v>-25754.75788363267</v>
+        <v>-25754.75788363273</v>
       </c>
       <c r="F6" t="n">
         <v>107345.2421163673</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_19_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_19_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>884232.193012258</v>
+        <v>800446.7912506331</v>
       </c>
     </row>
     <row r="7">
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>614457.2540377785</v>
+        <v>614457.2540377786</v>
       </c>
       <c r="C2" t="n">
-        <v>614457.2540377788</v>
+        <v>614457.2540377786</v>
       </c>
       <c r="D2" t="n">
         <v>614457.2540377787</v>
@@ -26429,37 +26429,37 @@
         <v>60523.96800341976</v>
       </c>
       <c r="F4" t="n">
+        <v>60523.96800341976</v>
+      </c>
+      <c r="G4" t="n">
         <v>60523.96800341977</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>60523.96800341976</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>60523.96800341977</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>60523.96800341976</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>60523.96800341977</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>60523.96800341976</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>60523.96800341977</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>60523.96800341976</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>60523.96800341977</v>
       </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>60523.96800341976</v>
-      </c>
-      <c r="P4" t="n">
-        <v>60523.96800341977</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>133805.0337653856</v>
+        <v>133760.8979867046</v>
       </c>
       <c r="C6" t="n">
-        <v>133805.0337653859</v>
+        <v>133760.8979867046</v>
       </c>
       <c r="D6" t="n">
-        <v>133805.0337653858</v>
+        <v>133760.8979867047</v>
       </c>
       <c r="E6" t="n">
-        <v>-25754.75788363273</v>
+        <v>-40564.77472274663</v>
       </c>
       <c r="F6" t="n">
-        <v>107345.2421163673</v>
+        <v>92535.22527725344</v>
       </c>
       <c r="G6" t="n">
-        <v>107345.2421163673</v>
+        <v>92535.22527725343</v>
       </c>
       <c r="H6" t="n">
-        <v>107345.2421163673</v>
+        <v>92535.22527725344</v>
       </c>
       <c r="I6" t="n">
-        <v>107345.2421163673</v>
+        <v>92535.22527725343</v>
       </c>
       <c r="J6" t="n">
-        <v>107345.2421163673</v>
+        <v>92535.22527725344</v>
       </c>
       <c r="K6" t="n">
-        <v>107345.2421163673</v>
+        <v>92535.22527725343</v>
       </c>
       <c r="L6" t="n">
-        <v>107345.2421163673</v>
+        <v>92535.22527725344</v>
       </c>
       <c r="M6" t="n">
-        <v>107345.2421163673</v>
+        <v>92535.22527725343</v>
       </c>
       <c r="N6" t="n">
-        <v>107345.2421163673</v>
+        <v>92535.22527725344</v>
       </c>
       <c r="O6" t="n">
-        <v>107345.2421163673</v>
+        <v>92535.22527725343</v>
       </c>
       <c r="P6" t="n">
-        <v>107345.2421163673</v>
+        <v>92535.22527725344</v>
       </c>
     </row>
   </sheetData>
